--- a/Assets/Grift Together/Resources/Localization/Localization.xlsx
+++ b/Assets/Grift Together/Resources/Localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\My Game\GriftTogether\Assets\Grift Together\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998C8E7D-B93E-4C12-B679-BC28179CAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0D1D7C-8F0B-4149-BDAF-1FD3701BFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Loading</t>
   </si>
   <si>
@@ -76,6 +70,15 @@
   </si>
   <si>
     <t>Test 2 "Tes,st"</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
@@ -411,65 +414,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
